--- a/biology/Zoologie/Agrias/Agrias.xlsx
+++ b/biology/Zoologie/Agrias/Agrias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrias est un genre d'insectes lépidoptères de la famille des Nymphalidae et de la sous-famille des Charaxinae, tribu des Preponini.
 </t>
@@ -511,14 +523,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Agrias a été décrit par l'entomologiste britannique Henry Doubleday en 1845 [1].
-L'espèce type pour le genre est Agrias claudina claudina"
-Taxinomie
-Le genre Agrias présentent un grand polymorphisme, entre les sous-espèces et même dans la même sous-espèce et chaque forme d'une même espèce a été nommée ce qui explique le très grand nombre de noms pour, en réalité, uniquement cinq espèces.
-Liste des espèces
-Atlas of Neotropical Lepidoptera Lamas 2004[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Agrias a été décrit par l'entomologiste britannique Henry Doubleday en 1845 .
+L'espèce type pour le genre est Agrias claudina claudina"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agrias</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Agrias présentent un grand polymorphisme, entre les sous-espèces et même dans la même sous-espèce et chaque forme d'une même espèce a été nommée ce qui explique le très grand nombre de noms pour, en réalité, uniquement cinq espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrias</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlas of Neotropical Lepidoptera Lamas 2004
 Agrias aedon
 Agrias amydon
 Agrias claudina (Godart, 1824) Espèce type
@@ -529,17 +612,86 @@
 			Agrias claudina - MHNT
 			Agrias hewitsonius
 			Agrias narcissus - MHNT
-Selon NCBI  (12 avr. 2011)[3]
-Agrias aedon
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agrias</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 avr. 2011)[3]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Agrias aedon
 sous-espèce Agrias aedon rodriguezi
 Agrias amydon
 sous-espèce Agrias amydon lacandona
 sous-espèce Agrias amydon oaxacata
 Agrias hewitsonius
 Agrias sp. philatelicaDHJ01
-Agrias sp. philatelicaDHJ02
-Selon Agrias Philippe Floquet 2008
-Agrias phalcidon
+Agrias sp. philatelicaDHJ02</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrias</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Selon Agrias Philippe Floquet 2008</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Agrias phalcidon
 Agrias pericles
 Agrias beatifica
 Agrias salhkei
@@ -551,31 +703,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Agrias</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agrias</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident tous en Amérique du Sud.
 </t>
